--- a/DR_extract.xlsx
+++ b/DR_extract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agrosko\Dropbox\Coding\srn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1403F50D-0C5E-45FA-9930-DFAE15DD752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26513164-B22E-41E9-B0B9-3DB2DEFAD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0AB1564D-D247-4434-B0BD-28B5E27A5919}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{9C1BDF7C-643B-427F-9E08-6FAB6EB818D5}">
+    <comment ref="AH5" authorId="0" shapeId="0" xr:uid="{9C1BDF7C-643B-427F-9E08-6FAB6EB818D5}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="134">
   <si>
     <t>name</t>
   </si>
@@ -128,9 +128,6 @@
     <t>E1-9</t>
   </si>
   <si>
-    <t>E2-IRO-1</t>
-  </si>
-  <si>
     <t>E2-1</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>E2-6</t>
   </si>
   <si>
-    <t>E3-IRO-1</t>
-  </si>
-  <si>
     <t>E3-1</t>
   </si>
   <si>
@@ -170,12 +164,6 @@
     <t>E4-1</t>
   </si>
   <si>
-    <t>E4-SBM-3</t>
-  </si>
-  <si>
-    <t>E4-IRO-1</t>
-  </si>
-  <si>
     <t>E4-2</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>E4-6</t>
   </si>
   <si>
-    <t>E5-IRO-1</t>
-  </si>
-  <si>
     <t>E5-1</t>
   </si>
   <si>
@@ -212,12 +197,6 @@
     <t>E5-6</t>
   </si>
   <si>
-    <t>S1-SBM-2</t>
-  </si>
-  <si>
-    <t>S1-SBM-3</t>
-  </si>
-  <si>
     <t>S1-1</t>
   </si>
   <si>
@@ -269,12 +248,6 @@
     <t>S1-17</t>
   </si>
   <si>
-    <t>S2-SBM-2</t>
-  </si>
-  <si>
-    <t>S2-SBM-3</t>
-  </si>
-  <si>
     <t>S2-1</t>
   </si>
   <si>
@@ -290,12 +263,6 @@
     <t>S2-5</t>
   </si>
   <si>
-    <t>S3-SBM-2</t>
-  </si>
-  <si>
-    <t>S3-SBM-3</t>
-  </si>
-  <si>
     <t>S3-1</t>
   </si>
   <si>
@@ -311,12 +278,6 @@
     <t>S3-5</t>
   </si>
   <si>
-    <t>S4-SBM-2</t>
-  </si>
-  <si>
-    <t>S4-SBM-3</t>
-  </si>
-  <si>
     <t>S4-1</t>
   </si>
   <si>
@@ -330,12 +291,6 @@
   </si>
   <si>
     <t>S4-5</t>
-  </si>
-  <si>
-    <t>G1-IRO-1</t>
-  </si>
-  <si>
-    <t>G1-GOV-1</t>
   </si>
   <si>
     <t>G1-1</t>
@@ -1191,15 +1146,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB3F201-F3D0-41A2-AFB9-33EAB5D25ECC}">
-  <dimension ref="A1:CT11"/>
+  <dimension ref="A1:CE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -1311,10 +1266,10 @@
       <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="AN1" s="2" t="s">
@@ -1323,10 +1278,10 @@
       <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AR1" s="2" t="s">
@@ -1446,76 +1401,31 @@
       <c r="CD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="C2" s="7">
         <v>2024</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H2" s="7">
         <f>[1]Report_Erhebungen!U2</f>
@@ -1527,261 +1437,246 @@
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L2" s="9">
         <v>45834</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="W2" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="X2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD2" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AE2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="AM2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR2" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="AS2" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AV2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AW2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="BA2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BB2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BD2" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BH2" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BL2" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BM2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BN2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BQ2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR2" s="7"/>
-      <c r="BS2" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="BT2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BU2" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BV2" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BW2" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BX2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY2" s="7"/>
-      <c r="BZ2" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="CA2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="CB2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="CC2" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="CD2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CF2" s="7"/>
-      <c r="CG2" s="7"/>
-      <c r="CH2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CI2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CM2" s="7"/>
-      <c r="CN2" s="7"/>
-      <c r="CO2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CT2" s="11" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="CE2" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C3" s="13">
         <v>2024</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H3" s="13">
         <f>[1]Report_Erhebungen!U3</f>
@@ -1792,10 +1687,10 @@
         <v>Ja</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L3" s="15">
         <v>45834</v>
@@ -1822,15 +1717,15 @@
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
       <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
       <c r="AR3" s="13"/>
       <c r="AS3" s="13"/>
       <c r="AT3" s="13"/>
@@ -1870,44 +1765,29 @@
       <c r="CB3" s="13"/>
       <c r="CC3" s="13"/>
       <c r="CD3" s="13"/>
-      <c r="CE3" s="13"/>
-      <c r="CF3" s="13"/>
-      <c r="CG3" s="13"/>
-      <c r="CH3" s="13"/>
-      <c r="CI3" s="13"/>
-      <c r="CJ3" s="13"/>
-      <c r="CK3" s="13"/>
-      <c r="CL3" s="13"/>
-      <c r="CM3" s="13"/>
-      <c r="CN3" s="13"/>
-      <c r="CO3" s="13"/>
-      <c r="CP3" s="13"/>
-      <c r="CQ3" s="13"/>
-      <c r="CR3" s="13"/>
-      <c r="CS3" s="13"/>
-      <c r="CT3" s="17"/>
+      <c r="CE3" s="17"/>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C4" s="7">
         <v>2024</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <f>[1]Report_Erhebungen!U4</f>
@@ -1918,10 +1798,10 @@
         <v>Ja</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L4" s="9">
         <v>45855</v>
@@ -1948,15 +1828,15 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
       <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
@@ -1996,44 +1876,29 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
       <c r="CD4" s="7"/>
-      <c r="CE4" s="7"/>
-      <c r="CF4" s="7"/>
-      <c r="CG4" s="7"/>
-      <c r="CH4" s="7"/>
-      <c r="CI4" s="7"/>
-      <c r="CJ4" s="7"/>
-      <c r="CK4" s="7"/>
-      <c r="CL4" s="7"/>
-      <c r="CM4" s="7"/>
-      <c r="CN4" s="7"/>
-      <c r="CO4" s="7"/>
-      <c r="CP4" s="7"/>
-      <c r="CQ4" s="7"/>
-      <c r="CR4" s="7"/>
-      <c r="CS4" s="7"/>
-      <c r="CT4" s="11"/>
+      <c r="CE4" s="11"/>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C5" s="13">
         <v>2024</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H5" s="13">
         <f>[1]Report_Erhebungen!U5</f>
@@ -2045,261 +1910,246 @@
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L5" s="15">
         <v>45855</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="N5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE5" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR5" s="13"/>
-      <c r="BS5" s="13"/>
-      <c r="BT5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BV5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BX5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY5" s="13"/>
-      <c r="BZ5" s="13"/>
-      <c r="CA5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CC5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CD5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CE5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CF5" s="13"/>
-      <c r="CG5" s="13"/>
-      <c r="CH5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CM5" s="13"/>
-      <c r="CN5" s="13"/>
-      <c r="CO5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CT5" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="C6" s="7">
         <v>2024</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7">
         <f>[1]Report_Erhebungen!U6</f>
@@ -2311,261 +2161,246 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L6" s="9">
         <v>45855</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="W6" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="X6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BV6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BY6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE6" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR6" s="7"/>
-      <c r="BS6" s="7"/>
-      <c r="BT6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BV6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BX6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY6" s="7"/>
-      <c r="BZ6" s="7"/>
-      <c r="CA6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CB6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CD6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CF6" s="7"/>
-      <c r="CG6" s="7"/>
-      <c r="CH6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CI6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CM6" s="7"/>
-      <c r="CN6" s="7"/>
-      <c r="CO6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="CT6" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="C7" s="13">
         <v>2024</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H7" s="13">
         <f>[1]Report_Erhebungen!U7</f>
@@ -2577,1230 +2412,1215 @@
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L7" s="15">
         <v>45855</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="W7" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="X7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD7" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="AE7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AH7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL7" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="AM7" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN7" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO7" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP7" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ7" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR7" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR7" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="AS7" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AT7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AU7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AV7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AW7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AX7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="AY7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ7" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="BA7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BB7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BC7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BD7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BE7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BF7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BH7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BI7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BJ7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BK7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BL7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BM7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BN7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BO7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BP7" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR7" s="13"/>
-      <c r="BS7" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="BR7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS7" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="BT7" s="13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BU7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BV7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BW7" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BX7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY7" s="13"/>
-      <c r="BZ7" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="BY7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ7" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="CA7" s="13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CB7" s="13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CC7" s="13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CD7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="CF7" s="13"/>
-      <c r="CG7" s="13"/>
-      <c r="CH7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CM7" s="13"/>
-      <c r="CN7" s="13"/>
-      <c r="CO7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="CT7" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="CE7" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>2024</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L8">
         <v>45839</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="W8" t="s">
+        <v>88</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Z8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AA8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AB8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AC8" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>85</v>
       </c>
       <c r="AE8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AJ8" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>88</v>
       </c>
       <c r="AM8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AN8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AO8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AP8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AQ8" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>88</v>
       </c>
       <c r="AS8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AT8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AU8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AV8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AW8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AX8" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>88</v>
       </c>
       <c r="BA8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BB8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BC8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BD8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BE8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BF8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BG8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BH8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BI8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BJ8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BK8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BL8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BM8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BN8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BO8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BP8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="BQ8" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>88</v>
       </c>
       <c r="BT8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BU8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BV8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BW8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BX8" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>85</v>
       </c>
       <c r="CA8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CB8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CC8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CD8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CE8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>100</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C9">
         <v>2024</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L9">
         <v>45839</v>
       </c>
       <c r="M9" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V9" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="W9" t="s">
+        <v>85</v>
       </c>
       <c r="X9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Z9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AB9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AC9" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>85</v>
       </c>
       <c r="AE9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AH9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>85</v>
       </c>
       <c r="AM9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AN9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AP9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AQ9" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>85</v>
       </c>
       <c r="AS9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AT9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AU9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AV9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AW9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AX9" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>88</v>
       </c>
       <c r="BA9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BB9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BC9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BD9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BE9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BF9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BG9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BH9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BI9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BJ9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="BK9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BL9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BM9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BN9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BO9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BP9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="BQ9" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>88</v>
       </c>
       <c r="BT9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BU9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BV9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BW9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BX9" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>85</v>
       </c>
       <c r="CA9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CB9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CC9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CD9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="CE9" t="s">
-        <v>103</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>103</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>2024</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L10">
         <v>45839</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="V10" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Z10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AB10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AC10" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>85</v>
       </c>
       <c r="AE10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AG10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AH10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>88</v>
       </c>
       <c r="AM10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AN10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AP10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AQ10" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>88</v>
       </c>
       <c r="AS10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AT10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AU10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AV10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AW10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AX10" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>85</v>
       </c>
       <c r="BA10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BB10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BC10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BD10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BE10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BF10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BG10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BH10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BI10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BJ10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BK10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BL10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BM10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BN10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BO10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BP10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ10" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>88</v>
       </c>
       <c r="BT10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BU10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BV10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BW10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BX10" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>85</v>
       </c>
       <c r="CA10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CB10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CC10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CD10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="CE10" t="s">
-        <v>103</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>103</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
         <v>122</v>
       </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" t="s">
-        <v>137</v>
-      </c>
       <c r="G11" s="20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L11">
         <v>45839</v>
       </c>
       <c r="M11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="U11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="V11" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="W11" t="s">
+        <v>88</v>
       </c>
       <c r="X11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Z11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AA11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AB11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AC11" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>88</v>
       </c>
       <c r="AE11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AF11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AG11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AJ11" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>88</v>
       </c>
       <c r="AM11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AN11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AO11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AP11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AQ11" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>88</v>
       </c>
       <c r="AS11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AT11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AU11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AV11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AW11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AX11" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>85</v>
       </c>
       <c r="BA11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BB11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BC11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BD11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BE11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BF11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BG11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BH11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BI11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BJ11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BK11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BL11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BM11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BN11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BO11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BP11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="BQ11" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>88</v>
       </c>
       <c r="BT11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="BU11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BV11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BW11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="BX11" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>85</v>
       </c>
       <c r="CA11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="CB11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CC11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CD11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="CE11" t="s">
-        <v>103</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>103</v>
-      </c>
-      <c r="CQ11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>100</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3813,7 +3633,7 @@
     <dataValidation type="list" allowBlank="1" sqref="D2:D7" xr:uid="{3C186C9A-5867-4402-8961-E44F712A3C59}">
       <formula1>"Denmark,Netherlands,Belgium,Finland,Norway,Spain,Germany,France,Austria,Ireland,United Kingdom,Sweden,Italy,Estonia,Lithuania,Slovakia,Croatia,Switzerland,Portugal,Cyprus,Czech Republic,Luxembourg,Greece,Hungary,Malta,Romania,Poland,Slovenia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E7 N2:CT7" xr:uid="{ADCCBD61-A930-410E-80A5-8A9B842B91B4}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E7 N2:CE7" xr:uid="{ADCCBD61-A930-410E-80A5-8A9B842B91B4}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DR_extract.xlsx
+++ b/DR_extract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agrosko\Dropbox\Coding\srn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26513164-B22E-41E9-B0B9-3DB2DEFAD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF849C93-3A06-47D4-A004-84DAF57D6A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0AB1564D-D247-4434-B0BD-28B5E27A5919}"/>
   </bookViews>
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB3F201-F3D0-41A2-AFB9-33EAB5D25ECC}">
   <dimension ref="A1:CE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
